--- a/SystemDevelopmentDocument/附件6-“学生毕业管理系统”接口文档.xlsx
+++ b/SystemDevelopmentDocument/附件6-“学生毕业管理系统”接口文档.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\课件资料\2020大三下\管理信息系统\毕业要求达成度评价实例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courseware\2020大三下\管理信息系统\毕业要求达成度评价实例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861E8225-2109-40F7-A156-A6A9E8B06DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB9ACC0-7E69-496D-9849-C4B4BB9C20A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学生模块和基本模块" sheetId="1" r:id="rId1"/>
@@ -245,11 +245,6 @@
   <si>
     <t>index_name/string/新的毕业要求的名称
 index_content/string/毕业要求的内容</t>
-  </si>
-  <si>
-    <t>return {
-      message:"success" //失败返回fail
-  	};</t>
   </si>
   <si>
     <t>移除学业要求</t>
@@ -706,16 +701,6 @@
         index_detail_id:"1-2",
         appraisal_value: "4"
       }]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>return {
-      tableData:[{
-        index_id : "1",
-        index_name: "好好学习",
-        index_content:"好好学习，天天向上！"
-      }]
-};</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -821,6 +806,22 @@
        index_detail_id:'1-2'
      }]
     }</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>return {
+      tableData:[{
+        index_id : "1",
+        index_name: "好好学习",
+        index_content:"好好学习，天天向上！"
+      }]
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>return {
+      message:"success" //失败返回fail
+}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1037,118 +1038,118 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1876,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="C5" zoomScale="63" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1891,29 +1892,29 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="173.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -1931,10 +1932,10 @@
       <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -1942,7 +1943,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1960,39 +1961,39 @@
       <c r="F3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="310.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="13"/>
+      <c r="G4" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -2008,11 +2009,11 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2028,11 +2029,11 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="157.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2048,26 +2049,26 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="11"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2085,7 +2086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2099,475 +2102,475 @@
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" s="16" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="228.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" ht="372.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="46"/>
+      <c r="B6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" ht="216" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="46"/>
+      <c r="B7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="228.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="47"/>
+      <c r="B8" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" ht="216" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="228.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
-      <c r="B8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="27" t="s">
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="46"/>
+      <c r="B9" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="131.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="46"/>
+      <c r="B11" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="46"/>
+      <c r="B12" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="168.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="46"/>
+      <c r="B13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="32" t="s">
+    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="46"/>
+      <c r="B14" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="46"/>
+      <c r="B15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="187.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="46"/>
+      <c r="B16" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.15">
+      <c r="A17" s="47"/>
+      <c r="B17" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="46"/>
+      <c r="B18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="187.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="46"/>
+      <c r="B19" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="46"/>
+      <c r="B20" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="46"/>
+      <c r="B21" s="29" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="131.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="22" t="s">
+      <c r="C21" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="168.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="22" t="s">
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="46"/>
+      <c r="B22" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="23" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="187.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="187.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="16" t="s">
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="46"/>
+      <c r="B23" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="D23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="23" t="s">
         <v>117</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="27" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2578,8 +2581,8 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2602,197 +2605,197 @@
     <col min="7" max="7" width="70.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" s="32" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="22" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="46"/>
+      <c r="B3" s="21" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="168.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="46"/>
+      <c r="B4" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="C4" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.15">
+      <c r="A5" s="47"/>
+      <c r="B5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="187.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="12" t="s">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+      <c r="A6" s="47"/>
+      <c r="B6" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.15">
+      <c r="A7" s="47"/>
+      <c r="B7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="46"/>
+      <c r="B8" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="46"/>
+      <c r="B9" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G9" s="23" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="243.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-      <c r="B7" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2814,111 +2817,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.75" style="39" customWidth="1"/>
-    <col min="2" max="2" width="59.375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="9" style="39"/>
-    <col min="4" max="4" width="29.625" style="39" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="41.75" style="35" customWidth="1"/>
+    <col min="2" max="2" width="59.375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="9" style="35"/>
+    <col min="4" max="4" width="29.625" style="35" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="C2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="39" t="s">
+      <c r="B3" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="44" t="s">
+    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="s">
+      <c r="B8" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="C8" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>168</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2952,71 +2955,71 @@
     <col min="7" max="7" width="70.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="47" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" s="43" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="206.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A2" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="46" t="s">
+      <c r="F2" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="G2" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="27" t="s">
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="187.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="49"/>
+      <c r="B3" s="39" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.15">
-      <c r="A3" s="49"/>
-      <c r="B3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="D3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="46" t="s">
+      <c r="F3" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>178</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3030,6 +3033,46 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -3040,48 +3083,8 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -3090,6 +3093,33 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -3098,35 +3128,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
